--- a/results/by_outcome/full_results_education_observed_MI.xlsx
+++ b/results/by_outcome/full_results_education_observed_MI.xlsx
@@ -483,10 +483,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.567775963923312</v>
+        <v>0.568327370344274</v>
       </c>
       <c r="I2" t="n">
-        <v>0.181609676902859</v>
+        <v>0.182541134774655</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -504,7 +504,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.432276726602564</v>
+        <v>0.431724059767481</v>
       </c>
     </row>
     <row r="3">
@@ -524,10 +524,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.57857599518225</v>
+        <v>0.578532758791308</v>
       </c>
       <c r="G3" t="n">
-        <v>0.208331613614247</v>
+        <v>0.205295420524164</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -562,13 +562,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.637296984495934</v>
+        <v>0.637358737239101</v>
       </c>
       <c r="D4" t="n">
-        <v>0.362795826096782</v>
+        <v>0.362731764845503</v>
       </c>
       <c r="E4" t="n">
-        <v>1.00009281059272</v>
+        <v>1.0000905020846</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -583,19 +583,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.362762157879051</v>
+        <v>0.362698939830343</v>
       </c>
       <c r="K4" t="n">
-        <v>0.208312280042041</v>
+        <v>0.205276842499685</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0107990288723315</v>
+        <v>0.0102044649165169</v>
       </c>
       <c r="M4" t="n">
-        <v>0.069514568723513</v>
+        <v>0.0690251199371374</v>
       </c>
       <c r="N4" t="n">
-        <v>0.219111308914373</v>
+        <v>0.215481307416202</v>
       </c>
       <c r="O4" t="e">
         <v>#NUM!</v>
@@ -640,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.362762157879051</v>
+        <v>0.362698939830343</v>
       </c>
       <c r="D2" t="n">
-        <v>0.328484358857658</v>
+        <v>0.328838568474349</v>
       </c>
       <c r="E2" t="n">
-        <v>0.397039956900444</v>
+        <v>0.396559311186337</v>
       </c>
     </row>
     <row r="3">
@@ -657,13 +657,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.219111308914373</v>
+        <v>0.215481307416202</v>
       </c>
       <c r="D3" t="n">
-        <v>0.186939191908661</v>
+        <v>0.191412127455423</v>
       </c>
       <c r="E3" t="n">
-        <v>0.251283425920085</v>
+        <v>0.239550487376981</v>
       </c>
     </row>
     <row r="4">
@@ -674,13 +674,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.432276726602564</v>
+        <v>0.431724059767481</v>
       </c>
       <c r="D4" t="n">
-        <v>0.404002257364146</v>
+        <v>0.399980320526992</v>
       </c>
       <c r="E4" t="n">
-        <v>0.460551195840982</v>
+        <v>0.463467799007969</v>
       </c>
     </row>
   </sheetData>

--- a/results/by_outcome/full_results_education_observed_MI.xlsx
+++ b/results/by_outcome/full_results_education_observed_MI.xlsx
@@ -483,10 +483,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.568327370344274</v>
+        <v>0.563380826992887</v>
       </c>
       <c r="I2" t="n">
-        <v>0.182541134774655</v>
+        <v>0.180654977621478</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -504,7 +504,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.431724059767481</v>
+        <v>0.436670145128977</v>
       </c>
     </row>
     <row r="3">
@@ -524,10 +524,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.578532758791308</v>
+        <v>0.575939809378633</v>
       </c>
       <c r="G3" t="n">
-        <v>0.205295420524164</v>
+        <v>0.203514636764776</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -562,13 +562,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.637358737239101</v>
+        <v>0.63758128463405</v>
       </c>
       <c r="D4" t="n">
-        <v>0.362731764845503</v>
+        <v>0.362509198923953</v>
       </c>
       <c r="E4" t="n">
-        <v>1.0000905020846</v>
+        <v>1.000090483558</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -583,19 +583,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.362698939830343</v>
+        <v>0.362476400765031</v>
       </c>
       <c r="K4" t="n">
-        <v>0.205276842499685</v>
+        <v>0.203496223722589</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0102044649165169</v>
+        <v>0.0125578461080231</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0690251199371374</v>
+        <v>0.0741937443639465</v>
       </c>
       <c r="N4" t="n">
-        <v>0.215481307416202</v>
+        <v>0.216054069830612</v>
       </c>
       <c r="O4" t="e">
         <v>#NUM!</v>
@@ -640,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.362698939830343</v>
+        <v>0.362476400765031</v>
       </c>
       <c r="D2" t="n">
-        <v>0.328838568474349</v>
+        <v>0.330148319043034</v>
       </c>
       <c r="E2" t="n">
-        <v>0.396559311186337</v>
+        <v>0.394804482487027</v>
       </c>
     </row>
     <row r="3">
@@ -657,13 +657,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.215481307416202</v>
+        <v>0.216054069830612</v>
       </c>
       <c r="D3" t="n">
-        <v>0.191412127455423</v>
+        <v>0.188708379640886</v>
       </c>
       <c r="E3" t="n">
-        <v>0.239550487376981</v>
+        <v>0.243399760020337</v>
       </c>
     </row>
     <row r="4">
@@ -674,13 +674,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.431724059767481</v>
+        <v>0.436670145128977</v>
       </c>
       <c r="D4" t="n">
-        <v>0.399980320526992</v>
+        <v>0.405504453035125</v>
       </c>
       <c r="E4" t="n">
-        <v>0.463467799007969</v>
+        <v>0.46783583722283</v>
       </c>
     </row>
   </sheetData>

--- a/results/by_outcome/full_results_education_observed_MI.xlsx
+++ b/results/by_outcome/full_results_education_observed_MI.xlsx
@@ -483,10 +483,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.563380826992887</v>
+        <v>0.562829559322632</v>
       </c>
       <c r="I2" t="n">
-        <v>0.180654977621478</v>
+        <v>0.181182979478295</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -504,7 +504,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.436670145128977</v>
+        <v>0.437221397807387</v>
       </c>
     </row>
     <row r="3">
@@ -524,10 +524,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.575939809378633</v>
+        <v>0.574429563149919</v>
       </c>
       <c r="G3" t="n">
-        <v>0.203514636764776</v>
+        <v>0.204399312173213</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -562,13 +562,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.63758128463405</v>
+        <v>0.637314387588559</v>
       </c>
       <c r="D4" t="n">
-        <v>0.362509198923953</v>
+        <v>0.362776158086459</v>
       </c>
       <c r="E4" t="n">
-        <v>1.000090483558</v>
+        <v>1.00009054567502</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -583,19 +583,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.362476400765031</v>
+        <v>0.362743313229904</v>
       </c>
       <c r="K4" t="n">
-        <v>0.203496223722589</v>
+        <v>0.204380806345658</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0125578461080231</v>
+        <v>0.0115989535773228</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0741937443639465</v>
+        <v>0.0744780845774824</v>
       </c>
       <c r="N4" t="n">
-        <v>0.216054069830612</v>
+        <v>0.215979759922981</v>
       </c>
       <c r="O4" t="e">
         <v>#NUM!</v>
@@ -640,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.362476400765031</v>
+        <v>0.362743313229904</v>
       </c>
       <c r="D2" t="n">
-        <v>0.330148319043034</v>
+        <v>0.331362833963758</v>
       </c>
       <c r="E2" t="n">
-        <v>0.394804482487027</v>
+        <v>0.39412379249605</v>
       </c>
     </row>
     <row r="3">
@@ -657,13 +657,13 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.216054069830612</v>
+        <v>0.215979759922981</v>
       </c>
       <c r="D3" t="n">
-        <v>0.188708379640886</v>
+        <v>0.186878089165942</v>
       </c>
       <c r="E3" t="n">
-        <v>0.243399760020337</v>
+        <v>0.24508143068002</v>
       </c>
     </row>
     <row r="4">
@@ -674,13 +674,13 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.436670145128977</v>
+        <v>0.437221397807387</v>
       </c>
       <c r="D4" t="n">
-        <v>0.405504453035125</v>
+        <v>0.407526642405936</v>
       </c>
       <c r="E4" t="n">
-        <v>0.46783583722283</v>
+        <v>0.466916153208837</v>
       </c>
     </row>
   </sheetData>

--- a/results/by_outcome/full_results_education_observed_MI.xlsx
+++ b/results/by_outcome/full_results_education_observed_MI.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t xml:space="preserve">Outcome</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t xml:space="preserve">Upper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff</t>
   </si>
 </sst>
 </file>
@@ -483,10 +489,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.562829559322632</v>
+        <v>0.562829555351978</v>
       </c>
       <c r="I2" t="n">
-        <v>0.181182979478295</v>
+        <v>0.181182984692579</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -504,7 +510,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.437221397807387</v>
+        <v>0.437221401615988</v>
       </c>
     </row>
     <row r="3">
@@ -524,10 +530,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.574429563149919</v>
+        <v>0.574429563617628</v>
       </c>
       <c r="G3" t="n">
-        <v>0.204399312173213</v>
+        <v>0.204399311521354</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -562,13 +568,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.637314387588559</v>
+        <v>0.637314388090011</v>
       </c>
       <c r="D4" t="n">
-        <v>0.362776158086459</v>
+        <v>0.362776157299309</v>
       </c>
       <c r="E4" t="n">
-        <v>1.00009054567502</v>
+        <v>1.00009054538932</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -583,19 +589,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.362743313229904</v>
+        <v>0.362743312546454</v>
       </c>
       <c r="K4" t="n">
-        <v>0.204380806345658</v>
+        <v>0.204380805752036</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0115989535773228</v>
+        <v>0.0115989580176419</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0744780845774824</v>
+        <v>0.0744780890695338</v>
       </c>
       <c r="N4" t="n">
-        <v>0.215979759922981</v>
+        <v>0.215979763769678</v>
       </c>
       <c r="O4" t="e">
         <v>#NUM!</v>
@@ -631,6 +637,9 @@
       <c r="E1" t="s">
         <v>22</v>
       </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -640,13 +649,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.362743313229904</v>
+        <v>0.362743312546454</v>
       </c>
       <c r="D2" t="n">
-        <v>0.331362833963758</v>
+        <v>0.331420123764098</v>
       </c>
       <c r="E2" t="n">
-        <v>0.39412379249605</v>
+        <v>0.394066501328811</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000472515308202454</v>
       </c>
     </row>
     <row r="3">
@@ -657,13 +669,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.215979759922981</v>
+        <v>0.215979763769678</v>
       </c>
       <c r="D3" t="n">
-        <v>0.186878089165942</v>
+        <v>0.18594405251832</v>
       </c>
       <c r="E3" t="n">
-        <v>0.24508143068002</v>
+        <v>0.246015475021036</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0000000000000000000000000000000000000000000651475693047417</v>
       </c>
     </row>
     <row r="4">
@@ -674,13 +689,36 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.437221397807387</v>
+        <v>0.437221401615988</v>
       </c>
       <c r="D4" t="n">
-        <v>0.407526642405936</v>
+        <v>0.406844094592091</v>
       </c>
       <c r="E4" t="n">
-        <v>0.466916153208837</v>
+        <v>0.467598708639885</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000205619470658232</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.22124163784631</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.201685649684517</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.240797626008104</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000651069261443274</v>
       </c>
     </row>
   </sheetData>

--- a/results/by_outcome/full_results_education_observed_MI.xlsx
+++ b/results/by_outcome/full_results_education_observed_MI.xlsx
@@ -489,10 +489,10 @@
         <v>#NUM!</v>
       </c>
       <c r="H2" t="n">
-        <v>0.562829555351978</v>
+        <v>0.562829559322632</v>
       </c>
       <c r="I2" t="n">
-        <v>0.181182984692579</v>
+        <v>0.181182979478295</v>
       </c>
       <c r="J2" t="e">
         <v>#NUM!</v>
@@ -510,7 +510,7 @@
         <v>#NUM!</v>
       </c>
       <c r="O2" t="n">
-        <v>0.437221401615988</v>
+        <v>0.437221397807387</v>
       </c>
     </row>
     <row r="3">
@@ -530,10 +530,10 @@
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.574429563617628</v>
+        <v>0.574429563149919</v>
       </c>
       <c r="G3" t="n">
-        <v>0.204399311521354</v>
+        <v>0.204399312173213</v>
       </c>
       <c r="H3" t="e">
         <v>#NUM!</v>
@@ -568,13 +568,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>0.637314388090011</v>
+        <v>0.637314387588559</v>
       </c>
       <c r="D4" t="n">
-        <v>0.362776157299309</v>
+        <v>0.362776158086459</v>
       </c>
       <c r="E4" t="n">
-        <v>1.00009054538932</v>
+        <v>1.00009054567502</v>
       </c>
       <c r="F4" t="e">
         <v>#NUM!</v>
@@ -589,19 +589,19 @@
         <v>#NUM!</v>
       </c>
       <c r="J4" t="n">
-        <v>0.362743312546454</v>
+        <v>0.362743313229904</v>
       </c>
       <c r="K4" t="n">
-        <v>0.204380805752036</v>
+        <v>0.204380806345658</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0115989580176419</v>
+        <v>0.0115989535773228</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0744780890695338</v>
+        <v>0.0744780845774824</v>
       </c>
       <c r="N4" t="n">
-        <v>0.215979763769678</v>
+        <v>0.215979759922981</v>
       </c>
       <c r="O4" t="e">
         <v>#NUM!</v>
@@ -649,16 +649,16 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>0.362743312546454</v>
+        <v>0.362743313229904</v>
       </c>
       <c r="D2" t="n">
-        <v>0.331420123764098</v>
+        <v>0.331478779327946</v>
       </c>
       <c r="E2" t="n">
-        <v>0.394066501328811</v>
+        <v>0.394007847131863</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000472515308202454</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000179248785642801</v>
       </c>
     </row>
     <row r="3">
@@ -669,16 +669,16 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.215979763769678</v>
+        <v>0.215979759922981</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18594405251832</v>
+        <v>0.186519911844896</v>
       </c>
       <c r="E3" t="n">
-        <v>0.246015475021036</v>
+        <v>0.245439608001067</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0000000000000000000000000000000000000000000651475693047417</v>
+        <v>0.00000000000000000000000000000000000000000000198477489471125</v>
       </c>
     </row>
     <row r="4">
@@ -689,16 +689,16 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>0.437221401615988</v>
+        <v>0.437221397807387</v>
       </c>
       <c r="D4" t="n">
-        <v>0.406844094592091</v>
+        <v>0.407382877948978</v>
       </c>
       <c r="E4" t="n">
-        <v>0.467598708639885</v>
+        <v>0.467059917665795</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000205619470658232</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000186233541285595</v>
       </c>
     </row>
     <row r="5">
@@ -709,16 +709,16 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>0.22124163784631</v>
+        <v>0.221241637884405</v>
       </c>
       <c r="D5" t="n">
-        <v>0.201685649684517</v>
+        <v>0.201987873590051</v>
       </c>
       <c r="E5" t="n">
-        <v>0.240797626008104</v>
+        <v>0.24049540217876</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000651069261443274</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000542767791162366</v>
       </c>
     </row>
   </sheetData>
